--- a/For_Kasper__From_France_Code.xlsx
+++ b/For_Kasper__From_France_Code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Documents\GitHub\ACS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657B02E4-8972-4DB2-AD1E-4D30CFCCC312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8967A7-5F4B-4CDD-B3FF-E1868762CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="19">
   <si>
     <t>Lambda</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.89</t>
   </si>
 </sst>
 </file>
@@ -473,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3957,25 +3966,25 @@
         <v>215</v>
       </c>
       <c r="I74">
-        <v>182.2</v>
+        <v>409.6</v>
       </c>
       <c r="J74">
-        <v>871.78</v>
+        <v>1034.5899999999999</v>
       </c>
       <c r="K74" s="1">
-        <v>207.34</v>
+        <v>209.64</v>
       </c>
       <c r="L74" s="1">
-        <v>258.07</v>
+        <v>232.09</v>
       </c>
       <c r="M74" s="1">
-        <v>87.27</v>
+        <v>153.91999999999999</v>
       </c>
       <c r="N74" s="1">
         <v>2.7</v>
       </c>
       <c r="O74">
-        <v>15.96</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -4004,25 +4013,25 @@
         <v>215</v>
       </c>
       <c r="I75">
-        <v>175</v>
+        <v>478</v>
       </c>
       <c r="J75">
-        <v>944.16</v>
+        <v>1124.58</v>
       </c>
       <c r="K75" s="1">
-        <v>204.33</v>
+        <v>184.23</v>
       </c>
       <c r="L75" s="1">
-        <v>224.86</v>
+        <v>198.93</v>
       </c>
       <c r="M75" s="1">
-        <v>231.92</v>
+        <v>348.27</v>
       </c>
       <c r="N75" s="1">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="O75">
-        <v>18.32</v>
+        <v>19.89</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -4051,25 +4060,25 @@
         <v>215</v>
       </c>
       <c r="I76">
-        <v>200.1</v>
+        <v>469.4</v>
       </c>
       <c r="J76">
-        <v>1015.91</v>
+        <v>1170.48</v>
       </c>
       <c r="K76" s="1">
-        <v>192.42</v>
+        <v>175.57</v>
       </c>
       <c r="L76" s="1">
-        <v>196.57</v>
+        <v>202.57</v>
       </c>
       <c r="M76" s="1">
-        <v>166.2</v>
+        <v>156.29</v>
       </c>
       <c r="N76" s="1">
         <v>2.7</v>
       </c>
       <c r="O76">
-        <v>20.96</v>
+        <v>20.170000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -4098,25 +4107,25 @@
         <v>215</v>
       </c>
       <c r="I77">
-        <v>196</v>
+        <v>478.3</v>
       </c>
       <c r="J77">
-        <v>1009.14</v>
+        <v>1192.47</v>
       </c>
       <c r="K77" s="1">
-        <v>179.26</v>
+        <v>143.91</v>
       </c>
       <c r="L77" s="1">
-        <v>200.68</v>
+        <v>198.79</v>
       </c>
       <c r="M77" s="1">
-        <v>292.88</v>
+        <v>316.83999999999997</v>
       </c>
       <c r="N77" s="1">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="O77">
-        <v>20.53</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -4145,25 +4154,25 @@
         <v>215</v>
       </c>
       <c r="I78">
-        <v>200.3</v>
+        <v>478.2</v>
       </c>
       <c r="J78">
-        <v>1013.74</v>
+        <v>1169.5999999999999</v>
       </c>
       <c r="K78" s="1">
-        <v>190.71</v>
+        <v>172.98</v>
       </c>
       <c r="L78" s="1">
-        <v>196.38</v>
+        <v>193.83</v>
       </c>
       <c r="M78" s="1">
-        <v>168.54</v>
+        <v>161.79</v>
       </c>
       <c r="N78" s="1">
         <v>2.7</v>
       </c>
       <c r="O78">
-        <v>20.98</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -4192,25 +4201,25 @@
         <v>215</v>
       </c>
       <c r="I79">
-        <v>182.3</v>
+        <v>459.2</v>
       </c>
       <c r="J79">
-        <v>944.91</v>
+        <v>1101.8399999999999</v>
       </c>
       <c r="K79" s="1">
-        <v>208.83</v>
+        <v>204.02</v>
       </c>
       <c r="L79" s="1">
-        <v>215.82</v>
+        <v>207.06</v>
       </c>
       <c r="M79" s="1">
-        <v>142.13999999999999</v>
+        <v>198.51</v>
       </c>
       <c r="N79" s="1">
         <v>2.7</v>
       </c>
       <c r="O79">
-        <v>19.09</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -4239,25 +4248,25 @@
         <v>215</v>
       </c>
       <c r="I80">
-        <v>180.6</v>
+        <v>474</v>
       </c>
       <c r="J80">
-        <v>929.23</v>
+        <v>1113.8800000000001</v>
       </c>
       <c r="K80" s="1">
-        <v>218.76</v>
+        <v>190.88</v>
       </c>
       <c r="L80" s="1">
-        <v>217.8</v>
+        <v>200.6</v>
       </c>
       <c r="M80" s="1">
-        <v>281.54000000000002</v>
+        <v>421.52</v>
       </c>
       <c r="N80" s="1">
-        <v>2.5299999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="O80">
-        <v>18.920000000000002</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -4286,25 +4295,25 @@
         <v>215</v>
       </c>
       <c r="I81">
-        <v>205.3</v>
+        <v>308.12</v>
       </c>
       <c r="J81">
-        <v>1000.54</v>
+        <v>1157.29</v>
       </c>
       <c r="K81" s="1">
-        <v>204.4</v>
+        <v>182.96</v>
       </c>
       <c r="L81" s="1">
-        <v>191.59</v>
+        <v>193.88</v>
       </c>
       <c r="M81" s="1">
-        <v>219.73</v>
+        <v>229.96</v>
       </c>
       <c r="N81" s="1">
         <v>2.72</v>
       </c>
       <c r="O81">
-        <v>21.5</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -4333,25 +4342,25 @@
         <v>215</v>
       </c>
       <c r="I82">
-        <v>194.6</v>
+        <v>304.66000000000003</v>
       </c>
       <c r="J82">
-        <v>958.29</v>
+        <v>1126.6500000000001</v>
       </c>
       <c r="K82" s="1">
-        <v>216.2</v>
+        <v>193.31</v>
       </c>
       <c r="L82" s="1">
-        <v>202.14</v>
+        <v>196.08</v>
       </c>
       <c r="M82" s="1">
-        <v>268.38</v>
+        <v>352.46</v>
       </c>
       <c r="N82" s="1">
         <v>2.61</v>
       </c>
       <c r="O82">
-        <v>20.38</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -4380,25 +4389,25 @@
         <v>215</v>
       </c>
       <c r="I83">
-        <v>185.9</v>
+        <v>470</v>
       </c>
       <c r="J83">
-        <v>932.63</v>
+        <v>1088.8800000000001</v>
       </c>
       <c r="K83" s="1">
-        <v>227.35</v>
+        <v>221.82</v>
       </c>
       <c r="L83" s="1">
-        <v>211.67</v>
+        <v>202.3</v>
       </c>
       <c r="M83" s="1">
-        <v>178.66</v>
+        <v>254.93</v>
       </c>
       <c r="N83" s="1">
         <v>2.72</v>
       </c>
       <c r="O83">
-        <v>19.46</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -4427,25 +4436,25 @@
         <v>215</v>
       </c>
       <c r="I84">
-        <v>150</v>
+        <v>401.9</v>
       </c>
       <c r="J84">
-        <v>874.18</v>
+        <v>1032.47</v>
       </c>
       <c r="K84" s="1">
-        <v>227.29</v>
+        <v>229.61</v>
       </c>
       <c r="L84" s="1">
-        <v>262.33</v>
+        <v>236.57</v>
       </c>
       <c r="M84" s="1">
-        <v>76.09</v>
+        <v>142.79</v>
       </c>
       <c r="N84" s="1">
         <v>2.72</v>
       </c>
       <c r="O84">
-        <v>15.7</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -4474,25 +4483,25 @@
         <v>215</v>
       </c>
       <c r="I85">
-        <v>205.3</v>
+        <v>490.4</v>
       </c>
       <c r="J85">
-        <v>1000.54</v>
+        <v>1157.29</v>
       </c>
       <c r="K85" s="1">
-        <v>204.4</v>
+        <v>182.96</v>
       </c>
       <c r="L85" s="1">
-        <v>191.59</v>
+        <v>193.88</v>
       </c>
       <c r="M85" s="1">
-        <v>219.73</v>
+        <v>229.96</v>
       </c>
       <c r="N85" s="1">
         <v>2.72</v>
       </c>
       <c r="O85">
-        <v>21.5</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -4503,10 +4512,10 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>0.8</v>
@@ -4518,28 +4527,28 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>206.9</v>
+        <v>205.2</v>
       </c>
       <c r="J86">
-        <v>936.55</v>
+        <v>1033.51</v>
       </c>
       <c r="K86" s="1">
-        <v>191.02</v>
+        <v>97.73</v>
       </c>
       <c r="L86" s="1">
-        <v>215.98</v>
+        <v>264.8</v>
       </c>
       <c r="M86" s="1">
-        <v>287.43</v>
+        <v>191.32</v>
       </c>
       <c r="N86" s="1">
-        <v>2.5099999999999998</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="O86">
-        <v>19.079999999999998</v>
+        <v>8.89</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -4547,46 +4556,46 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="D87">
         <v>14</v>
       </c>
       <c r="E87">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G87">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>208.4</v>
+        <v>619.5</v>
       </c>
       <c r="J87">
-        <v>1014.49</v>
+        <v>1008.61</v>
       </c>
       <c r="K87" s="1">
-        <v>183.12</v>
+        <v>217.08</v>
       </c>
       <c r="L87" s="1">
-        <v>190.11</v>
+        <v>189.65</v>
       </c>
       <c r="M87" s="1">
-        <v>177.79</v>
+        <v>856.46</v>
       </c>
       <c r="N87" s="1">
-        <v>2.5499999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="O87">
-        <v>21.67</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -4594,46 +4603,46 @@
         <v>1</v>
       </c>
       <c r="B88">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="C88">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="D88">
         <v>13</v>
       </c>
       <c r="E88">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>202.4</v>
+        <v>613.20000000000005</v>
       </c>
       <c r="J88">
-        <v>1069.4100000000001</v>
+        <v>1025.5999999999999</v>
       </c>
       <c r="K88" s="1">
-        <v>149.72</v>
+        <v>233.75</v>
       </c>
       <c r="L88" s="1">
-        <v>194.4</v>
+        <v>191.6</v>
       </c>
       <c r="M88" s="1">
-        <v>129.13</v>
+        <v>675.49</v>
       </c>
       <c r="N88" s="1">
-        <v>2.89</v>
+        <v>2.35</v>
       </c>
       <c r="O88">
-        <v>21.19</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -4641,46 +4650,46 @@
         <v>1</v>
       </c>
       <c r="B89">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C89">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="D89">
         <v>13</v>
       </c>
       <c r="E89">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>275.5</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="J89">
-        <v>1059.32</v>
+        <v>985.83</v>
       </c>
       <c r="K89" s="1">
-        <v>192.99</v>
+        <v>264.88</v>
       </c>
       <c r="L89" s="1">
-        <v>183.58</v>
+        <v>198.05</v>
       </c>
       <c r="M89" s="1">
-        <v>302.37</v>
+        <v>516.91999999999996</v>
       </c>
       <c r="N89" s="1">
-        <v>3.65</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="O89">
-        <v>28.85</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -4688,46 +4697,1550 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C90">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="D90">
         <v>13</v>
       </c>
       <c r="E90">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F90">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G90">
         <v>20</v>
       </c>
       <c r="H90">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I90">
-        <v>107</v>
+        <v>617.9</v>
       </c>
       <c r="J90">
-        <v>899.19</v>
+        <v>1125.78</v>
       </c>
       <c r="K90" s="1">
-        <v>175.23</v>
+        <v>234.71</v>
       </c>
       <c r="L90" s="1">
-        <v>315.23</v>
+        <v>190.15</v>
       </c>
       <c r="M90" s="1">
-        <v>23.08</v>
+        <v>294.47000000000003</v>
       </c>
       <c r="N90" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="O90">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D91" s="1">
+        <v>13</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F91" s="1">
+        <v>20</v>
+      </c>
+      <c r="G91" s="1">
+        <v>20</v>
+      </c>
+      <c r="H91" s="2">
+        <v>220</v>
+      </c>
+      <c r="I91" s="1">
+        <v>470.6</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1130.6099999999999</v>
+      </c>
+      <c r="K91" s="1">
+        <v>189.49</v>
+      </c>
+      <c r="L91" s="1">
+        <v>202.05</v>
+      </c>
+      <c r="M91" s="1">
+        <v>148.1</v>
+      </c>
+      <c r="N91" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="O91" s="1">
+        <v>20.39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D92" s="1">
+        <v>13</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F92" s="1">
+        <v>30</v>
+      </c>
+      <c r="G92" s="1">
+        <v>20</v>
+      </c>
+      <c r="H92" s="2">
+        <v>220</v>
+      </c>
+      <c r="I92" s="1">
+        <v>458.5</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1195.58</v>
+      </c>
+      <c r="K92" s="1">
+        <v>114.28</v>
+      </c>
+      <c r="L92" s="1">
+        <v>207.38</v>
+      </c>
+      <c r="M92" s="1">
+        <v>193.9</v>
+      </c>
+      <c r="N92" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="O92" s="1">
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="1">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F93" s="1">
+        <v>30</v>
+      </c>
+      <c r="G93" s="1">
+        <v>34</v>
+      </c>
+      <c r="H93" s="2">
+        <v>220</v>
+      </c>
+      <c r="I93" s="1">
+        <v>604.9</v>
+      </c>
+      <c r="J93" s="1">
+        <v>1212.26</v>
+      </c>
+      <c r="K93" s="1">
+        <v>132.44999999999999</v>
+      </c>
+      <c r="L93" s="1">
+        <v>202.08</v>
+      </c>
+      <c r="M93" s="1">
+        <v>197.74</v>
+      </c>
+      <c r="N93" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="O93" s="1">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="1">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F94" s="1">
+        <v>30</v>
+      </c>
+      <c r="G94" s="1">
+        <v>34</v>
+      </c>
+      <c r="H94" s="2">
+        <v>180</v>
+      </c>
+      <c r="I94" s="1">
+        <v>640.20000000000005</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1196.25</v>
+      </c>
+      <c r="K94" s="1">
+        <v>137.66999999999999</v>
+      </c>
+      <c r="L94" s="1">
+        <v>200.49</v>
+      </c>
+      <c r="M94" s="1">
+        <v>232.48</v>
+      </c>
+      <c r="N94" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="O94" s="1">
+        <v>27.74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="1">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F95" s="1">
+        <v>30</v>
+      </c>
+      <c r="G95" s="1">
+        <v>35</v>
+      </c>
+      <c r="H95" s="2">
+        <v>210</v>
+      </c>
+      <c r="I95" s="1">
+        <v>641.4</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1220.74</v>
+      </c>
+      <c r="K95" s="1">
+        <v>136.81</v>
+      </c>
+      <c r="L95" s="1">
+        <v>200.1</v>
+      </c>
+      <c r="M95" s="1">
+        <v>218.25</v>
+      </c>
+      <c r="N95" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="O95" s="1">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D96" s="1">
+        <v>13</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F96" s="1">
+        <v>30</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>215</v>
+      </c>
+      <c r="I96" s="1">
+        <v>409.6</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1034.5899999999999</v>
+      </c>
+      <c r="K96" s="1">
+        <v>209.64</v>
+      </c>
+      <c r="L96" s="1">
+        <v>232.09</v>
+      </c>
+      <c r="M96" s="1">
+        <v>153.91999999999999</v>
+      </c>
+      <c r="N96" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="O96" s="1">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D97" s="1">
+        <v>13</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F97" s="1">
+        <v>30</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>215</v>
+      </c>
+      <c r="I97" s="1">
+        <v>458.9</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1124.58</v>
+      </c>
+      <c r="K97" s="1">
+        <v>184.23</v>
+      </c>
+      <c r="L97" s="1">
+        <v>207.17</v>
+      </c>
+      <c r="M97" s="1">
+        <v>348.27</v>
+      </c>
+      <c r="N97" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O97" s="1">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D98" s="1">
+        <v>13</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F98" s="1">
+        <v>10</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>215</v>
+      </c>
+      <c r="I98" s="1">
+        <v>478</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1170.48</v>
+      </c>
+      <c r="K98" s="1">
+        <v>157.57</v>
+      </c>
+      <c r="L98" s="1">
+        <v>198.93</v>
+      </c>
+      <c r="M98" s="1">
+        <v>156.29</v>
+      </c>
+      <c r="N98" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="O98" s="1">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>13</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F99" s="1">
+        <v>20</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>215</v>
+      </c>
+      <c r="I99" s="1">
+        <v>469.4</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1192.47</v>
+      </c>
+      <c r="K99" s="1">
+        <v>143.91</v>
+      </c>
+      <c r="L99" s="1">
+        <v>202.57</v>
+      </c>
+      <c r="M99" s="1">
+        <v>316.83999999999997</v>
+      </c>
+      <c r="N99" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O99" s="1">
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>13</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F100" s="1">
+        <v>10</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>215</v>
+      </c>
+      <c r="I100" s="1">
+        <v>478.2</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1169.5999999999999</v>
+      </c>
+      <c r="K100" s="1">
+        <v>172.98</v>
+      </c>
+      <c r="L100" s="1">
+        <v>198.83</v>
+      </c>
+      <c r="M100" s="1">
+        <v>161.79</v>
+      </c>
+      <c r="N100" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="O100" s="1">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>13</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F101" s="1">
+        <v>20</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>215</v>
+      </c>
+      <c r="I101" s="1">
+        <v>459.2</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1101.8399999999999</v>
+      </c>
+      <c r="K101" s="1">
+        <v>204.02</v>
+      </c>
+      <c r="L101" s="1">
+        <v>207.06</v>
+      </c>
+      <c r="M101" s="1">
+        <v>198.51</v>
+      </c>
+      <c r="N101" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="O101" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>14</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F102" s="1">
+        <v>30</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>215</v>
+      </c>
+      <c r="I102" s="1">
+        <v>469.9</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1111.77</v>
+      </c>
+      <c r="K102" s="1">
+        <v>199.58</v>
+      </c>
+      <c r="L102" s="1">
+        <v>202.35</v>
+      </c>
+      <c r="M102" s="1">
+        <v>407.43</v>
+      </c>
+      <c r="N102" s="1">
         <v>2.52</v>
       </c>
-      <c r="O90">
-        <v>11.2</v>
+      <c r="O102" s="1">
+        <v>20.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D103" s="1">
+        <v>14</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F103" s="1">
+        <v>10</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>215</v>
+      </c>
+      <c r="I103" s="1">
+        <v>490.1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1158.72</v>
+      </c>
+      <c r="K103" s="1">
+        <v>189.03</v>
+      </c>
+      <c r="L103" s="1">
+        <v>193.98</v>
+      </c>
+      <c r="M103" s="1">
+        <v>226.49</v>
+      </c>
+      <c r="N103" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="O103" s="1">
+        <v>21.24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D104" s="1">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F104" s="1">
+        <v>20</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>215</v>
+      </c>
+      <c r="I104" s="1">
+        <v>482.7</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1126.8</v>
+      </c>
+      <c r="K104" s="1">
+        <v>200.36</v>
+      </c>
+      <c r="L104" s="1">
+        <v>196.98</v>
+      </c>
+      <c r="M104" s="1">
+        <v>339.02</v>
+      </c>
+      <c r="N104" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="O104" s="1">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D105" s="1">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F105" s="1">
+        <v>20</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>215</v>
+      </c>
+      <c r="I105" s="1">
+        <v>466</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1092.08</v>
+      </c>
+      <c r="K105" s="1">
+        <v>224.98</v>
+      </c>
+      <c r="L105" s="1">
+        <v>204.03</v>
+      </c>
+      <c r="M105" s="1">
+        <v>235.09</v>
+      </c>
+      <c r="N105" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="O105" s="1">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D106" s="1">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F106" s="1">
+        <v>30</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>215</v>
+      </c>
+      <c r="I106" s="1">
+        <v>395.1</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1037.48</v>
+      </c>
+      <c r="K106" s="1">
+        <v>230.08</v>
+      </c>
+      <c r="L106" s="1">
+        <v>240.64</v>
+      </c>
+      <c r="M106" s="1">
+        <v>123.44</v>
+      </c>
+      <c r="N106" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="O106" s="1">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D107" s="1">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F107" s="1">
+        <v>10</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>215</v>
+      </c>
+      <c r="I107" s="1">
+        <v>490.1</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1158.72</v>
+      </c>
+      <c r="K107" s="1">
+        <v>189.03</v>
+      </c>
+      <c r="L107" s="1">
+        <v>193.98</v>
+      </c>
+      <c r="M107" s="1">
+        <v>226.49</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="O107" s="1">
+        <v>21.24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="D108" s="1">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F108" s="1">
+        <v>30</v>
+      </c>
+      <c r="G108" s="1">
+        <v>40</v>
+      </c>
+      <c r="H108" s="2">
+        <v>160</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1206.44</v>
+      </c>
+      <c r="K108" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="L108" s="1">
+        <v>203.68</v>
+      </c>
+      <c r="M108" s="1">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="O108" s="1">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="D109" s="1">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F109" s="1">
+        <v>30</v>
+      </c>
+      <c r="G109" s="1">
+        <v>40</v>
+      </c>
+      <c r="H109" s="2">
+        <v>160</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1206.23</v>
+      </c>
+      <c r="K109" s="1">
+        <v>118.11</v>
+      </c>
+      <c r="L109" s="1">
+        <v>203.47</v>
+      </c>
+      <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="O109" s="1">
+        <v>27.77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="D110" s="1">
+        <v>14</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F110" s="1">
+        <v>30</v>
+      </c>
+      <c r="G110" s="1">
+        <v>38</v>
+      </c>
+      <c r="H110" s="2">
+        <v>180</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="1">
+        <v>1200.5</v>
+      </c>
+      <c r="K110" s="1">
+        <v>122.92</v>
+      </c>
+      <c r="L110" s="1">
+        <v>203.83</v>
+      </c>
+      <c r="M110" s="1">
+        <v>158.16</v>
+      </c>
+      <c r="N110" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="O110" s="1">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="D111" s="1">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F111" s="1">
+        <v>30</v>
+      </c>
+      <c r="G111" s="1">
+        <v>38</v>
+      </c>
+      <c r="H111" s="2">
+        <v>180</v>
+      </c>
+      <c r="I111" s="1">
+        <v>644.29999999999995</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1215.0999999999999</v>
+      </c>
+      <c r="K111" s="1">
+        <v>122.28</v>
+      </c>
+      <c r="L111" s="1">
+        <v>201.32</v>
+      </c>
+      <c r="M111" s="1">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="N111" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="O111" s="1">
+        <v>27.92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D112" s="1">
+        <v>14</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F112" s="1">
+        <v>30</v>
+      </c>
+      <c r="G112" s="1">
+        <v>36</v>
+      </c>
+      <c r="H112" s="2">
+        <v>210</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="D113" s="1">
+        <v>13</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F113" s="1">
+        <v>30</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>605.5</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1019.6</v>
+      </c>
+      <c r="K113" s="1">
+        <v>201.5</v>
+      </c>
+      <c r="L113" s="1">
+        <v>194.02</v>
+      </c>
+      <c r="M113" s="1">
+        <v>795.51</v>
+      </c>
+      <c r="N113" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="O113" s="1">
+        <v>26.24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="D114" s="1">
+        <v>13</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F114" s="1">
+        <v>30</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>658.6</v>
+      </c>
+      <c r="J114" s="1">
+        <v>1014.06</v>
+      </c>
+      <c r="K114" s="1">
+        <v>215</v>
+      </c>
+      <c r="L114" s="1">
+        <v>190.76</v>
+      </c>
+      <c r="M114" s="1">
+        <v>881.48</v>
+      </c>
+      <c r="N114" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="O114" s="1">
+        <v>28.54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D115" s="1">
+        <v>13</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F115" s="1">
+        <v>30</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>180</v>
+      </c>
+      <c r="I115" s="1">
+        <v>685.1</v>
+      </c>
+      <c r="J115" s="1">
+        <v>1093.4100000000001</v>
+      </c>
+      <c r="K115" s="1">
+        <v>214</v>
+      </c>
+      <c r="L115" s="1">
+        <v>188.34</v>
+      </c>
+      <c r="M115" s="1">
+        <v>724.65</v>
+      </c>
+      <c r="N115" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="O115" s="1">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D116" s="1">
+        <v>13</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F116" s="1">
+        <v>30</v>
+      </c>
+      <c r="G116" s="1">
+        <v>20</v>
+      </c>
+      <c r="H116" s="2">
+        <v>180</v>
+      </c>
+      <c r="I116" s="1">
+        <v>666.4</v>
+      </c>
+      <c r="J116" s="1">
+        <v>1162.21</v>
+      </c>
+      <c r="K116" s="1">
+        <v>154.41999999999999</v>
+      </c>
+      <c r="L116" s="1">
+        <v>193.62</v>
+      </c>
+      <c r="M116" s="1">
+        <v>572.53</v>
+      </c>
+      <c r="N116" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="O116" s="1">
+        <v>28.88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D117" s="1">
+        <v>13</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F117" s="1">
+        <v>30</v>
+      </c>
+      <c r="G117" s="1">
+        <v>30</v>
+      </c>
+      <c r="H117" s="2">
+        <v>180</v>
+      </c>
+      <c r="I117" s="1">
+        <v>639</v>
+      </c>
+      <c r="J117" s="1">
+        <v>1204</v>
+      </c>
+      <c r="K117" s="1">
+        <v>124.19</v>
+      </c>
+      <c r="L117" s="1">
+        <v>201.94</v>
+      </c>
+      <c r="M117" s="1">
+        <v>263.82</v>
+      </c>
+      <c r="N117" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="O117" s="1">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D118" s="1">
+        <v>13</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F118" s="1">
+        <v>30</v>
+      </c>
+      <c r="G118" s="1">
+        <v>35</v>
+      </c>
+      <c r="H118" s="2">
+        <v>180</v>
+      </c>
+      <c r="I118" s="1">
+        <v>620</v>
+      </c>
+      <c r="J118" s="1">
+        <v>1228</v>
+      </c>
+      <c r="K118" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="L118" s="1">
+        <v>208.11</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="O118" s="1">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D119" s="1">
+        <v>13</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F119" s="1">
+        <v>30</v>
+      </c>
+      <c r="G119" s="1">
+        <v>32</v>
+      </c>
+      <c r="H119" s="2">
+        <v>180</v>
+      </c>
+      <c r="I119" s="1">
+        <v>631</v>
+      </c>
+      <c r="J119" s="1">
+        <v>1214.22</v>
+      </c>
+      <c r="K119" s="1">
+        <v>118.36</v>
+      </c>
+      <c r="L119" s="1">
+        <v>204.22</v>
+      </c>
+      <c r="M119" s="1">
+        <v>148.13999999999999</v>
+      </c>
+      <c r="N119" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="O119" s="1">
+        <v>27.38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="D120" s="1">
+        <v>13</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F120" s="1">
+        <v>30</v>
+      </c>
+      <c r="G120" s="1">
+        <v>32</v>
+      </c>
+      <c r="H120" s="2">
+        <v>180</v>
+      </c>
+      <c r="I120" s="1">
+        <v>639.79999999999995</v>
+      </c>
+      <c r="J120" s="1">
+        <v>1213</v>
+      </c>
+      <c r="K120" s="1">
+        <v>119.6</v>
+      </c>
+      <c r="L120" s="1">
+        <v>203.79</v>
+      </c>
+      <c r="M120" s="1">
+        <v>164.61</v>
+      </c>
+      <c r="N120" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="O120" s="1">
+        <v>27.73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="D121" s="1">
+        <v>13</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F121" s="1">
+        <v>30</v>
+      </c>
+      <c r="G121" s="1">
+        <v>32</v>
+      </c>
+      <c r="H121" s="2">
+        <v>180</v>
+      </c>
+      <c r="I121" s="1">
+        <v>643.79999999999995</v>
+      </c>
+      <c r="J121" s="1">
+        <v>1213.72</v>
+      </c>
+      <c r="K121" s="1">
+        <v>120.23</v>
+      </c>
+      <c r="L121" s="1">
+        <v>203.58</v>
+      </c>
+      <c r="M121" s="1">
+        <v>173.3</v>
+      </c>
+      <c r="N121" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="O121" s="1">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="D122" s="1">
+        <v>13</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F122" s="1">
+        <v>30</v>
+      </c>
+      <c r="G122" s="1">
+        <v>32</v>
+      </c>
+      <c r="H122" s="2">
+        <v>185</v>
+      </c>
+      <c r="I122" s="1">
+        <v>644.20000000000005</v>
+      </c>
+      <c r="J122" s="1">
+        <v>1217.44</v>
+      </c>
+      <c r="K122" s="1">
+        <v>120.58</v>
+      </c>
+      <c r="L122" s="1">
+        <v>203.45</v>
+      </c>
+      <c r="M122" s="1">
+        <v>190.16</v>
+      </c>
+      <c r="N122" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="O122" s="1">
+        <v>27.92</v>
       </c>
     </row>
   </sheetData>
@@ -4741,6 +6254,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2c3285d-3169-4fd7-bb15-31b8821600b8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d680cd0c-a5a7-487b-9fb0-cd842ef4bb7b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038D734F0F3A5BC4B93067F435B8A0367" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc2a69a662d1e6afe884a6c3f7e677ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a2c3285d-3169-4fd7-bb15-31b8821600b8" xmlns:ns3="d680cd0c-a5a7-487b-9fb0-cd842ef4bb7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73968b4a3c12ae32bc653d2cad1f82ad" ns2:_="" ns3:_="">
     <xsd:import namespace="a2c3285d-3169-4fd7-bb15-31b8821600b8"/>
@@ -4943,41 +6476,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2c3285d-3169-4fd7-bb15-31b8821600b8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d680cd0c-a5a7-487b-9fb0-cd842ef4bb7b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11797CC0-2A8E-44EB-AB7F-2B032C1A5135}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{092C2FD1-D057-4EED-9766-40D7FA57F18F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a2c3285d-3169-4fd7-bb15-31b8821600b8"/>
-    <ds:schemaRef ds:uri="d680cd0c-a5a7-487b-9fb0-cd842ef4bb7b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5000,9 +6502,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{092C2FD1-D057-4EED-9766-40D7FA57F18F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11797CC0-2A8E-44EB-AB7F-2B032C1A5135}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a2c3285d-3169-4fd7-bb15-31b8821600b8"/>
+    <ds:schemaRef ds:uri="d680cd0c-a5a7-487b-9fb0-cd842ef4bb7b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>